--- a/biology/Zoologie/Dalmannia/Dalmannia.xlsx
+++ b/biology/Zoologie/Dalmannia/Dalmannia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dalmannia est un genre d'insectes diptères brachycères de la famille des Conopidae. Les adultes se nourrissent de nectar. Le comportement d'une grande partie de ces espèces est inconnu ; pour celles dont il a été étudiée, la larve est obligatoirement endoparasite d'autres insectes, en particulier les hymenoptère pollinisateurs et parmi eux, les bourdons ou des Halictes. L'espèce-type du genre est Dalmannia punctata[1].
-Les espèces du genre Dalmania se rencontrent sur l'ensemble de l'Hémisphère Nord ; six au sein de l'Écozone néarctique, quatre à l'Ouest de la zone paléarctique dont l'Europe et deux à l'Est de cette même zone[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dalmannia est un genre d'insectes diptères brachycères de la famille des Conopidae. Les adultes se nourrissent de nectar. Le comportement d'une grande partie de ces espèces est inconnu ; pour celles dont il a été étudiée, la larve est obligatoirement endoparasite d'autres insectes, en particulier les hymenoptère pollinisateurs et parmi eux, les bourdons ou des Halictes. L'espèce-type du genre est Dalmannia punctata.
+Les espèces du genre Dalmania se rencontrent sur l'ensemble de l'Hémisphère Nord ; six au sein de l'Écozone néarctique, quatre à l'Ouest de la zone paléarctique dont l'Europe et deux à l'Est de cette même zone.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Jens-Hermann Stuke[1] et Fauna Europaea                                      (7 mars 2019)[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Jens-Hermann Stuke et Fauna Europaea                                      (7 mars 2019):
 Dalmannia aculeata, Ouest Paléarctique
 Dalmannia affinis, Est Paléarctique
 Dalmannia blaisdelli, Néarctique
@@ -527,7 +541,7 @@
 Dalmannia punctata, Ouest Paléarctique
 Dalmannia signata, Est Paléarctique
 Dalmannia vitiosa, Néarctique
-Dalmannia confusa, souvent citée, est considérée comme synonyme de Dalmannia dorsalis[1].
+Dalmannia confusa, souvent citée, est considérée comme synonyme de Dalmannia dorsalis.
 	Les espèces européennes
 			Dalmannia punctata espèce-type du genre.
 			Dalmannia dorsalis
